--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022720.xlsx_with_dialog_acts.xlsx
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7669,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7711,12 +7711,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7963,12 +7963,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8215,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8341,12 +8341,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8425,12 +8425,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8509,12 +8509,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9097,12 +9097,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9391,12 +9391,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9601,12 +9601,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10273,12 +10273,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11201,12 +11201,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11285,12 +11285,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11369,12 +11369,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12083,12 +12083,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13053,12 +13053,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13137,12 +13137,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14443,12 +14443,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14779,12 +14779,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14821,12 +14821,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15115,12 +15115,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15329,12 +15329,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15413,12 +15413,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15539,12 +15539,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15581,12 +15581,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15665,12 +15665,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15707,12 +15707,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16001,12 +16001,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16043,12 +16043,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17219,12 +17219,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17597,12 +17597,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17807,12 +17807,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17891,12 +17891,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18605,12 +18605,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19361,12 +19361,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19739,12 +19739,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19865,12 +19865,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19949,12 +19949,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20075,12 +20075,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20789,12 +20789,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21167,12 +21167,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21209,12 +21209,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21377,12 +21377,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21587,12 +21587,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21839,12 +21839,12 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22049,12 +22049,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22515,12 +22515,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23063,12 +23063,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23273,12 +23273,12 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23855,12 +23855,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23939,12 +23939,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24023,12 +24023,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24317,12 +24317,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25077,12 +25077,12 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25119,12 +25119,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25245,12 +25245,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25455,12 +25455,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25497,12 +25497,12 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25539,12 +25539,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25581,12 +25581,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25623,12 +25623,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25791,12 +25791,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26379,12 +26379,12 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27181,12 +27181,12 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27727,12 +27727,12 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27811,12 +27811,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27937,12 +27937,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28273,12 +28273,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28319,12 +28319,12 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28403,12 +28403,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28655,12 +28655,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28991,12 +28991,12 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29327,12 +29327,12 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29831,12 +29831,12 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30333,12 +30333,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30631,12 +30631,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30757,12 +30757,12 @@
       <c r="H721" t="inlineStr"/>
       <c r="I721" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31135,12 +31135,12 @@
       <c r="H730" t="inlineStr"/>
       <c r="I730" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31895,12 +31895,12 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32021,12 +32021,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32735,12 +32735,12 @@
       <c r="H768" t="inlineStr"/>
       <c r="I768" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33573,12 +33573,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33657,12 +33657,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34245,12 +34245,12 @@
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
